--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2073647.098595482</v>
+        <v>2070773.837873799</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>512713.4228427383</v>
+        <v>512713.4228427389</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9798947.49475495</v>
+        <v>9798947.494754948</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10.58695345037629</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.21022140383137</v>
+        <v>18.92112911249623</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="U2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29.89427490705984</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
     </row>
     <row r="4">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12.44627538834367</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>12.44627538834367</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>17.44799951871617</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="R4" t="n">
+      <c r="Y4" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>11.85612676368803</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>33.89412103271894</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
     </row>
     <row r="7">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>132.3053095920849</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.40434400002655</v>
+        <v>13.40434400002654</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>30.61915629771546</v>
+        <v>30.61915629771465</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>207.9982466298121</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>132.305309592087</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>207.9982466298133</v>
       </c>
       <c r="X8" t="n">
-        <v>207.9982466298121</v>
+        <v>207.9982466298133</v>
       </c>
       <c r="Y8" t="n">
-        <v>207.9982466298121</v>
+        <v>207.9982466298133</v>
       </c>
     </row>
     <row r="9">
@@ -1209,25 +1209,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.3277870857637</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.4256300674691</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>37.09347022133013</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>119.8970271656346</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>162.8677668627518</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>129.8419244385738</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.1543139889523</v>
+        <v>33.1543139889519</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.8560098323253</v>
+        <v>14.85600983232482</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>139.004428040702</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>9.044883391473123</v>
+        <v>207.9982466298133</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>204.1883503993741</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>207.9982466298133</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>390.2381922474125</v>
       </c>
       <c r="G11" t="n">
         <v>409.8857884306595</v>
@@ -1424,7 +1424,7 @@
         <v>199.3831549468395</v>
       </c>
       <c r="U11" t="n">
-        <v>234.2744434867804</v>
+        <v>250.9122969810784</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>99.84974338345945</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>38.80758305912578</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5611224842954</v>
       </c>
       <c r="H13" t="n">
-        <v>140.6235359353329</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>82.37805183878278</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>298.9494425801205</v>
       </c>
       <c r="X14" t="n">
-        <v>319.4395745411773</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.89579629161431</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>142.5766827123789</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>359.5517498754676</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352753</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.58371311037386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>83.07736723265351</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>356.5845196044215</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8432760127576</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352932</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8722600728365</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>164.6601998171039</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>89.5340822374514</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>128.6156654840648</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>86.2717922279349</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2770,13 +2770,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.9320997728195</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>82.5452093391596</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.729505493042395</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>7.729505493042395</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754667</v>
       </c>
       <c r="H38" t="n">
-        <v>233.2715658672535</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.54236394510057</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>89.97676987682902</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.32106446352753</v>
+        <v>34.32106446352932</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>125.7904799542508</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
@@ -3916,7 +3916,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S43" t="n">
-        <v>92.39246241888355</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>233.2715658672517</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001823</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>65.48141546285757</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.1526756188784</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4316,7 +4316,7 @@
         <v>32.91143027777485</v>
       </c>
       <c r="F2" t="n">
-        <v>22.21753790365739</v>
+        <v>25.96592952857138</v>
       </c>
       <c r="G2" t="n">
         <v>6.853677899787311</v>
@@ -4331,13 +4331,13 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916426</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="L2" t="n">
-        <v>2.715192997916426</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="M2" t="n">
-        <v>36.31570634713221</v>
+        <v>34.95810984817397</v>
       </c>
       <c r="N2" t="n">
         <v>68.55862319738975</v>
@@ -4355,10 +4355,10 @@
         <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T2" t="n">
-        <v>67.19417015045701</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="U2" t="n">
         <v>32.91143027777485</v>
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="C3" t="n">
         <v>71.28067274328075</v>
@@ -4416,16 +4416,16 @@
         <v>73.80703733704675</v>
       </c>
       <c r="M3" t="n">
-        <v>102.1591365466055</v>
+        <v>107.4075506862625</v>
       </c>
       <c r="N3" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="O3" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="P3" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Q3" t="n">
         <v>135.7596498958213</v>
@@ -4452,7 +4452,7 @@
         <v>101.4769100231392</v>
       </c>
       <c r="Y3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
     </row>
     <row r="4">
@@ -4471,19 +4471,19 @@
         <v>67.19417015045701</v>
       </c>
       <c r="E4" t="n">
-        <v>67.19417015045701</v>
+        <v>54.62217480869573</v>
       </c>
       <c r="F4" t="n">
-        <v>67.19417015045701</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="G4" t="n">
-        <v>67.19417015045701</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="H4" t="n">
-        <v>54.62217480869573</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="I4" t="n">
-        <v>54.62217480869573</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="J4" t="n">
         <v>20.33943493601357</v>
@@ -4507,28 +4507,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="R4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="S4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="T4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="U4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="V4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="W4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="X4" t="n">
         <v>101.4769100231392</v>
-      </c>
-      <c r="R4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="S4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="T4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="U4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="V4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="W4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="X4" t="n">
-        <v>67.19417015045701</v>
       </c>
       <c r="Y4" t="n">
         <v>67.19417015045701</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="C5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="D5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="E5" t="n">
-        <v>76.18473245640914</v>
+        <v>64.20884683652224</v>
       </c>
       <c r="F5" t="n">
+        <v>57.26334608731877</v>
+      </c>
+      <c r="G5" t="n">
         <v>41.94824656477385</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.078485107422247</v>
-      </c>
       <c r="H5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I5" t="n">
         <v>3.078485107422247</v>
@@ -4568,22 +4568,22 @@
         <v>3.078485107422247</v>
       </c>
       <c r="K5" t="n">
-        <v>3.078485107422247</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>39.63549575806142</v>
+        <v>79.27099151612285</v>
       </c>
       <c r="M5" t="n">
-        <v>77.73174896241173</v>
+        <v>117.3672447204732</v>
       </c>
       <c r="N5" t="n">
-        <v>115.828002166762</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="O5" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="P5" t="n">
-        <v>153.9242553711123</v>
+        <v>148.7634570536217</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4595,13 +4595,13 @@
         <v>115.0544939137607</v>
       </c>
       <c r="T5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="U5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="V5" t="n">
-        <v>115.0544939137607</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="W5" t="n">
         <v>76.18473245640914</v>
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="C6" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="D6" t="n">
         <v>3.078485107422247</v>
@@ -4650,46 +4650,46 @@
         <v>47.48135862876946</v>
       </c>
       <c r="L6" t="n">
-        <v>47.48135862876946</v>
+        <v>85.57761183311976</v>
       </c>
       <c r="M6" t="n">
-        <v>47.48135862876946</v>
+        <v>123.6738650374701</v>
       </c>
       <c r="N6" t="n">
-        <v>47.48135862876946</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="O6" t="n">
-        <v>77.73174896241173</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="P6" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
       </c>
       <c r="R6" t="n">
-        <v>119.687769479477</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>119.687769479477</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="T6" t="n">
-        <v>119.687769479477</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="U6" t="n">
-        <v>80.81800802212544</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="V6" t="n">
-        <v>41.94824656477385</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="W6" t="n">
-        <v>3.078485107422247</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X6" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.078485107422247</v>
+        <v>37.31497099905754</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.18473245640914</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="C7" t="n">
-        <v>76.18473245640914</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="D7" t="n">
-        <v>37.31497099905754</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="E7" t="n">
-        <v>37.31497099905754</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="F7" t="n">
-        <v>37.31497099905754</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="G7" t="n">
-        <v>37.31497099905754</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="H7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4765,10 +4765,10 @@
         <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>115.0544939137607</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.18473245640914</v>
+        <v>95.90108948244061</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>170.7668287544485</v>
+        <v>37.12510189375676</v>
       </c>
       <c r="C8" t="n">
-        <v>170.7668287544485</v>
+        <v>37.12510189375676</v>
       </c>
       <c r="D8" t="n">
-        <v>37.12510189375668</v>
+        <v>37.12510189375676</v>
       </c>
       <c r="E8" t="n">
-        <v>37.12510189375668</v>
+        <v>37.12510189375676</v>
       </c>
       <c r="F8" t="n">
-        <v>30.1796011445532</v>
+        <v>30.17960114455329</v>
       </c>
       <c r="G8" t="n">
-        <v>16.63985973038497</v>
+        <v>16.63985973038507</v>
       </c>
       <c r="H8" t="n">
-        <v>16.63985973038497</v>
+        <v>16.63985973038507</v>
       </c>
       <c r="I8" t="n">
-        <v>16.63985973038497</v>
+        <v>16.63985973038507</v>
       </c>
       <c r="J8" t="n">
-        <v>164.3226021062291</v>
+        <v>164.3226021062303</v>
       </c>
       <c r="K8" t="n">
-        <v>185.5015959282062</v>
+        <v>185.501595928209</v>
       </c>
       <c r="L8" t="n">
-        <v>248.6777723970483</v>
+        <v>248.6777723970532</v>
       </c>
       <c r="M8" t="n">
-        <v>350.6428789087455</v>
+        <v>350.6428789087526</v>
       </c>
       <c r="N8" t="n">
-        <v>458.8716958238717</v>
+        <v>458.871695823881</v>
       </c>
       <c r="O8" t="n">
-        <v>547.7338373814515</v>
+        <v>547.733837381463</v>
       </c>
       <c r="P8" t="n">
-        <v>638.9286874640216</v>
+        <v>638.9286874640251</v>
       </c>
       <c r="Q8" t="n">
-        <v>831.9929865192482</v>
+        <v>831.9929865192532</v>
       </c>
       <c r="R8" t="n">
-        <v>801.0645458144851</v>
+        <v>801.064545814491</v>
       </c>
       <c r="S8" t="n">
-        <v>801.0645458144851</v>
+        <v>801.064545814491</v>
       </c>
       <c r="T8" t="n">
-        <v>801.0645458144851</v>
+        <v>801.064545814491</v>
       </c>
       <c r="U8" t="n">
-        <v>590.9653067944729</v>
+        <v>801.064545814491</v>
       </c>
       <c r="V8" t="n">
-        <v>590.9653067944729</v>
+        <v>667.4228189537971</v>
       </c>
       <c r="W8" t="n">
-        <v>590.9653067944729</v>
+        <v>457.3235799337837</v>
       </c>
       <c r="X8" t="n">
-        <v>380.8660677744607</v>
+        <v>247.2243409137702</v>
       </c>
       <c r="Y8" t="n">
-        <v>170.7668287544485</v>
+        <v>37.12510189375676</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>499.2647536782188</v>
+        <v>257.8049275619334</v>
       </c>
       <c r="C9" t="n">
-        <v>324.8117243970917</v>
+        <v>257.8049275619334</v>
       </c>
       <c r="D9" t="n">
-        <v>175.8773147358405</v>
+        <v>257.8049275619334</v>
       </c>
       <c r="E9" t="n">
-        <v>16.63985973038497</v>
+        <v>257.8049275619334</v>
       </c>
       <c r="F9" t="n">
-        <v>16.63985973038497</v>
+        <v>257.8049275619334</v>
       </c>
       <c r="G9" t="n">
-        <v>16.63985973038497</v>
+        <v>120.100092121768</v>
       </c>
       <c r="H9" t="n">
-        <v>16.63985973038497</v>
+        <v>16.63985973038507</v>
       </c>
       <c r="I9" t="n">
-        <v>16.63985973038497</v>
+        <v>16.63985973038507</v>
       </c>
       <c r="J9" t="n">
-        <v>16.63985973038497</v>
+        <v>16.63985973038507</v>
       </c>
       <c r="K9" t="n">
-        <v>201.2443634550486</v>
+        <v>42.5547865438029</v>
       </c>
       <c r="L9" t="n">
-        <v>282.4127218114468</v>
+        <v>123.7231449002025</v>
       </c>
       <c r="M9" t="n">
-        <v>396.4892357215002</v>
+        <v>237.7996588102577</v>
       </c>
       <c r="N9" t="n">
-        <v>527.9936604252389</v>
+        <v>369.3040835139981</v>
       </c>
       <c r="O9" t="n">
-        <v>626.0747223557344</v>
+        <v>467.3851454444951</v>
       </c>
       <c r="P9" t="n">
-        <v>831.9929865192482</v>
+        <v>634.2379451450619</v>
       </c>
       <c r="Q9" t="n">
-        <v>831.9929865192482</v>
+        <v>831.9929865192532</v>
       </c>
       <c r="R9" t="n">
-        <v>831.9929865192482</v>
+        <v>794.5248347805359</v>
       </c>
       <c r="S9" t="n">
-        <v>831.9929865192482</v>
+        <v>794.5248347805359</v>
       </c>
       <c r="T9" t="n">
-        <v>831.9929865192482</v>
+        <v>794.5248347805359</v>
       </c>
       <c r="U9" t="n">
-        <v>831.9929865192482</v>
+        <v>794.5248347805359</v>
       </c>
       <c r="V9" t="n">
-        <v>831.9929865192482</v>
+        <v>794.5248347805359</v>
       </c>
       <c r="W9" t="n">
-        <v>831.9929865192482</v>
+        <v>673.4167265324202</v>
       </c>
       <c r="X9" t="n">
-        <v>831.9929865192482</v>
+        <v>465.5652263268873</v>
       </c>
       <c r="Y9" t="n">
-        <v>667.4800906982869</v>
+        <v>257.8049275619334</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.2022053013334</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="C10" t="n">
-        <v>626.2022053013334</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="D10" t="n">
-        <v>476.0855658889976</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="E10" t="n">
-        <v>328.1724723066045</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="F10" t="n">
-        <v>181.2825248086941</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="G10" t="n">
-        <v>181.2825248086941</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="H10" t="n">
-        <v>181.2825248086941</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="I10" t="n">
-        <v>50.12906577983173</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="J10" t="n">
-        <v>16.63985973038497</v>
+        <v>16.63985973038507</v>
       </c>
       <c r="K10" t="n">
-        <v>92.53880118217268</v>
+        <v>92.5388011821733</v>
       </c>
       <c r="L10" t="n">
-        <v>245.1897497524693</v>
+        <v>245.189749752471</v>
       </c>
       <c r="M10" t="n">
-        <v>416.527894872026</v>
+        <v>416.5278948720288</v>
       </c>
       <c r="N10" t="n">
-        <v>589.2266182820772</v>
+        <v>589.2266182820808</v>
       </c>
       <c r="O10" t="n">
-        <v>732.7255459351404</v>
+        <v>732.7255459351447</v>
       </c>
       <c r="P10" t="n">
-        <v>831.9929865192482</v>
+        <v>831.9929865192532</v>
       </c>
       <c r="Q10" t="n">
-        <v>816.986915981546</v>
+        <v>816.9869159815514</v>
       </c>
       <c r="R10" t="n">
-        <v>816.986915981546</v>
+        <v>676.5784028091251</v>
       </c>
       <c r="S10" t="n">
-        <v>816.986915981546</v>
+        <v>676.5784028091251</v>
       </c>
       <c r="T10" t="n">
-        <v>816.986915981546</v>
+        <v>676.5784028091251</v>
       </c>
       <c r="U10" t="n">
-        <v>807.8506701315731</v>
+        <v>466.4791637891117</v>
       </c>
       <c r="V10" t="n">
-        <v>807.8506701315731</v>
+        <v>260.2283047998449</v>
       </c>
       <c r="W10" t="n">
-        <v>807.8506701315731</v>
+        <v>260.2283047998449</v>
       </c>
       <c r="X10" t="n">
-        <v>807.8506701315731</v>
+        <v>50.12906577983144</v>
       </c>
       <c r="Y10" t="n">
-        <v>807.8506701315731</v>
+        <v>50.12906577983144</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2316.670463897226</v>
+        <v>2299.864551276722</v>
       </c>
       <c r="C11" t="n">
-        <v>1947.707946956814</v>
+        <v>1930.90203433631</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.442248350063</v>
+        <v>1572.63633572956</v>
       </c>
       <c r="E11" t="n">
-        <v>1203.653995751819</v>
+        <v>1186.848083131315</v>
       </c>
       <c r="F11" t="n">
         <v>792.6680909622116</v>
@@ -5039,22 +5039,22 @@
         <v>91.77489830055403</v>
       </c>
       <c r="J11" t="n">
-        <v>367.6986673540605</v>
+        <v>367.6986673540596</v>
       </c>
       <c r="K11" t="n">
-        <v>831.9753895528479</v>
+        <v>831.975389552847</v>
       </c>
       <c r="L11" t="n">
-        <v>1444.853479454458</v>
+        <v>1444.853479454457</v>
       </c>
       <c r="M11" t="n">
-        <v>2158.467880879588</v>
+        <v>2158.467880879587</v>
       </c>
       <c r="N11" t="n">
-        <v>2888.243117759497</v>
+        <v>2888.243117759496</v>
       </c>
       <c r="O11" t="n">
-        <v>3564.013918708394</v>
+        <v>3564.013918708393</v>
       </c>
       <c r="P11" t="n">
         <v>4106.267661949283</v>
@@ -5072,19 +5072,19 @@
         <v>4387.347788818773</v>
       </c>
       <c r="U11" t="n">
-        <v>4150.706936811924</v>
+        <v>4133.90102419142</v>
       </c>
       <c r="V11" t="n">
-        <v>3819.644049468353</v>
+        <v>3802.838136847849</v>
       </c>
       <c r="W11" t="n">
-        <v>3466.875394198239</v>
+        <v>3450.069481577735</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.409635937159</v>
+        <v>3076.603723316655</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.270303961348</v>
+        <v>2686.464391340844</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>91.77489830055403</v>
       </c>
       <c r="J12" t="n">
-        <v>91.77489830055403</v>
+        <v>237.2953579247752</v>
       </c>
       <c r="K12" t="n">
-        <v>418.6473666810633</v>
+        <v>564.1678263052845</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4902801418673</v>
+        <v>1050.010739766089</v>
       </c>
       <c r="M12" t="n">
-        <v>1490.802912593109</v>
+        <v>1595.70252444983</v>
       </c>
       <c r="N12" t="n">
-        <v>2107.042140713395</v>
+        <v>1595.70252444983</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.504667671848</v>
+        <v>2137.221230875804</v>
       </c>
       <c r="P12" t="n">
         <v>2552.504667671848</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>990.4279791903988</v>
+        <v>654.6697230856604</v>
       </c>
       <c r="C13" t="n">
-        <v>821.4917962624919</v>
+        <v>553.8113964357013</v>
       </c>
       <c r="D13" t="n">
-        <v>671.3751568501561</v>
+        <v>553.8113964357013</v>
       </c>
       <c r="E13" t="n">
-        <v>523.462063267763</v>
+        <v>405.8983028533082</v>
       </c>
       <c r="F13" t="n">
-        <v>484.2624844201612</v>
+        <v>259.0083553553979</v>
       </c>
       <c r="G13" t="n">
-        <v>317.0290273653173</v>
+        <v>91.77489830055403</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9850516730619</v>
+        <v>91.77489830055403</v>
       </c>
       <c r="I13" t="n">
         <v>91.77489830055403</v>
@@ -5236,13 +5236,13 @@
         <v>1392.869023164169</v>
       </c>
       <c r="W13" t="n">
-        <v>1392.869023164169</v>
+        <v>1103.451853127208</v>
       </c>
       <c r="X13" t="n">
-        <v>1392.869023164169</v>
+        <v>875.4623022291905</v>
       </c>
       <c r="Y13" t="n">
-        <v>1172.076444020639</v>
+        <v>654.6697230856604</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251933</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
         <v>3602.609239333932</v>
@@ -5297,25 +5297,25 @@
         <v>4150.91518802128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126172</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856058</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
         <v>3093.963640945778</v>
@@ -5349,25 +5349,25 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>301.0525042748308</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>791.784837118582</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.814998036501</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
         <v>2552.77562977024</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.0885253246415</v>
+        <v>570.8347179409782</v>
       </c>
       <c r="C16" t="n">
-        <v>576.1523423967346</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="D16" t="n">
-        <v>426.0357029843989</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="E16" t="n">
-        <v>426.0357029843989</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130713</v>
+        <v>401.8985350130712</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>234.6843401876501</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K16" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439276</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.936290233389</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.529569298411</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.7369901548813</v>
+        <v>752.4831827712179</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1897.462430614634</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>742.422574620032</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128747</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070877</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K18" t="n">
-        <v>240.4596049779265</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4596049779265</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>832.4779592300542</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1454.57392262939</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.450397629585</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
-        <v>2421.03391605566</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
         <v>2552.77562977024</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>717.7246654388886</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C19" t="n">
-        <v>548.7884825109817</v>
+        <v>410.1424574638373</v>
       </c>
       <c r="D19" t="n">
-        <v>548.7884825109817</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109817</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130713</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
         <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
         <v>2020.132206020528</v>
@@ -5695,28 +5695,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.205584149098</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2025.52680186348</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.450588178207</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.76609997232</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.348929935359</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X19" t="n">
-        <v>964.3593790373418</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.5667998938117</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555046</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1897.462430614634</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1539.196732007884</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1153.40847940964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
         <v>793.22209597083</v>
@@ -5744,10 +5744,10 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608179</v>
       </c>
       <c r="J20" t="n">
         <v>372.3074987251948</v>
@@ -5756,46 +5756,46 @@
         <v>841.937882512877</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O20" t="n">
         <v>3602.609239333934</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070877</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L21" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M21" t="n">
-        <v>1175.56231032196</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="N21" t="n">
-        <v>1797.658273721296</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O21" t="n">
-        <v>2344.53474872149</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q21" t="n">
         <v>2552.77562977024</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>867.8413048512243</v>
+        <v>965.8811044681717</v>
       </c>
       <c r="C22" t="n">
-        <v>698.9051219233174</v>
+        <v>846.8182155057106</v>
       </c>
       <c r="D22" t="n">
-        <v>548.7884825109817</v>
+        <v>696.7015760933748</v>
       </c>
       <c r="E22" t="n">
         <v>548.7884825109817</v>
@@ -5902,13 +5902,13 @@
         <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
         <v>431.4224730861981</v>
@@ -5935,25 +5935,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2262.052340251477</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T22" t="n">
-        <v>2042.373557965859</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U22" t="n">
-        <v>2042.373557965859</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V22" t="n">
-        <v>1787.689069759972</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.271899723011</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X22" t="n">
-        <v>1270.282348824994</v>
+        <v>1147.529569298411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1049.489769681464</v>
+        <v>1147.529569298411</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5987,28 +5987,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6066,25 +6066,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1507.107777810845</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.203741210181</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6124,16 +6124,16 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
         <v>235.7210651131766</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,25 +6212,25 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
         <v>2234.298471234014</v>
@@ -6269,7 +6269,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810845</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210181</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476001</v>
+        <v>977.7697540515045</v>
       </c>
       <c r="C28" t="n">
-        <v>495.0957149476001</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D28" t="n">
-        <v>495.0957149476001</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E28" t="n">
-        <v>495.0957149476001</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F28" t="n">
-        <v>348.2057674496897</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
-        <v>180.9915726242685</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6418,16 +6418,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856348</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819387</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213699</v>
+        <v>1380.210798025274</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778398</v>
+        <v>1159.418218881744</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
         <v>1949.298676890958</v>
@@ -6449,10 +6449,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6461,28 +6461,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6494,19 +6494,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W29" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L30" t="n">
-        <v>107.3505653988748</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M30" t="n">
-        <v>699.3689196510026</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.464883050339</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.7462509176839</v>
+        <v>552.5703416234767</v>
       </c>
       <c r="C31" t="n">
-        <v>493.8100679897771</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="D31" t="n">
-        <v>343.6934285774413</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="E31" t="n">
-        <v>343.6934285774413</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F31" t="n">
-        <v>343.6934285774413</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G31" t="n">
-        <v>176.4792337520202</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6643,28 +6643,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2346.03350000321</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2126.354717717592</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1837.278504032319</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.594015826432</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1293.176845789471</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1065.187294891454</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>844.3947157479237</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
         <v>1591.032978284208</v>
@@ -6686,10 +6686,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
         <v>93.84834815160703</v>
@@ -6698,28 +6698,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6731,19 +6731,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160703</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L33" t="n">
-        <v>584.5806809953584</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.599035247486</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N33" t="n">
-        <v>1798.694998646823</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O33" t="n">
-        <v>2345.571473647017</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6847,10 +6847,10 @@
         <v>326.1595320196932</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135898</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890957</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963552</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6935,52 +6935,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7017,13 +7017,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>424.3570907149658</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L36" t="n">
-        <v>915.0894235587172</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M36" t="n">
-        <v>1507.107777810845</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N36" t="n">
         <v>2006.935879695572</v>
@@ -7081,13 +7081,13 @@
         <v>326.1595320196932</v>
       </c>
       <c r="F37" t="n">
-        <v>318.3519507135898</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G37" t="n">
-        <v>318.3519507135898</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>158.945337194272</v>
       </c>
       <c r="I37" t="n">
         <v>93.84834815160703</v>
@@ -7163,7 +7163,7 @@
         <v>742.4225746200311</v>
       </c>
       <c r="G38" t="n">
-        <v>328.4394675364376</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H38" t="n">
         <v>92.81162322608054</v>
@@ -7172,22 +7172,22 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251971</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128753</v>
+        <v>841.9378825128788</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N38" t="n">
         <v>2919.747202874796</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P38" t="n">
         <v>4150.915188021282</v>
@@ -7251,28 +7251,28 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J39" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779264</v>
       </c>
       <c r="K39" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L39" t="n">
-        <v>106.3138404733492</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M39" t="n">
-        <v>698.3321947254767</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.428158124813</v>
+        <v>1775.337880784799</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.304633125007</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P39" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>494.0589900220732</v>
+        <v>873.8816814720478</v>
       </c>
       <c r="C40" t="n">
-        <v>465.2283193704565</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D40" t="n">
-        <v>465.2283193704565</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E40" t="n">
-        <v>317.3152257880633</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F40" t="n">
-        <v>317.3152257880633</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G40" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H40" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I40" t="n">
         <v>92.81162322608054</v>
@@ -7333,49 +7333,49 @@
         <v>171.7937461156344</v>
       </c>
       <c r="K40" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L40" t="n">
-        <v>819.1842911693324</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M40" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N40" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O40" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P40" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q40" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S40" t="n">
-        <v>2177.346239107599</v>
+        <v>2337.490148271956</v>
       </c>
       <c r="T40" t="n">
-        <v>1957.667456821981</v>
+        <v>2337.490148271956</v>
       </c>
       <c r="U40" t="n">
-        <v>1668.591243136708</v>
+        <v>2048.413934586682</v>
       </c>
       <c r="V40" t="n">
-        <v>1413.906754930821</v>
+        <v>1793.729446380795</v>
       </c>
       <c r="W40" t="n">
-        <v>1124.48958489386</v>
+        <v>1504.312276343835</v>
       </c>
       <c r="X40" t="n">
-        <v>896.5000339958431</v>
+        <v>1276.322725445817</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.7074548523129</v>
+        <v>1055.530146302287</v>
       </c>
     </row>
     <row r="41">
@@ -7400,40 +7400,40 @@
         <v>793.22209597083</v>
       </c>
       <c r="G41" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H41" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251938</v>
+        <v>372.3074987251934</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L41" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.60923933393</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.497374127287</v>
+        <v>4514.497374127285</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304025</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S41" t="n">
         <v>4605.913419421674</v>
@@ -7476,37 +7476,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G42" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I42" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J42" t="n">
-        <v>240.4596049779264</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="K42" t="n">
-        <v>301.0525042748308</v>
+        <v>423.3203657894392</v>
       </c>
       <c r="L42" t="n">
-        <v>791.784837118582</v>
+        <v>423.3203657894392</v>
       </c>
       <c r="M42" t="n">
-        <v>1383.80319137071</v>
+        <v>733.658398959387</v>
       </c>
       <c r="N42" t="n">
-        <v>2005.899154770046</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O42" t="n">
-        <v>2552.77562977024</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P42" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q42" t="n">
         <v>2552.77562977024</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.582242953727</v>
+        <v>1078.556427399</v>
       </c>
       <c r="C43" t="n">
-        <v>634.6460600258201</v>
+        <v>909.620244471093</v>
       </c>
       <c r="D43" t="n">
-        <v>484.5294206134844</v>
+        <v>759.5036050587572</v>
       </c>
       <c r="E43" t="n">
-        <v>484.5294206134844</v>
+        <v>611.5905114763641</v>
       </c>
       <c r="F43" t="n">
-        <v>484.5294206134844</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G43" t="n">
         <v>317.3152257880633</v>
@@ -7564,16 +7564,16 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I43" t="n">
-        <v>92.8116232260805</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J43" t="n">
         <v>171.7937461156344</v>
       </c>
       <c r="K43" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L43" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M43" t="n">
         <v>1238.413883213791</v>
@@ -7585,34 +7585,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P43" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q43" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S43" t="n">
-        <v>2267.190709753635</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.190709753635</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.114496068362</v>
+        <v>2071.440215683395</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.430007862475</v>
+        <v>1816.755727477508</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.012837825514</v>
+        <v>1527.338557440547</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.023286927497</v>
+        <v>1299.34900654253</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.2307077839667</v>
+        <v>1078.556427399</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2266.424947555043</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C44" t="n">
-        <v>1897.462430614632</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D44" t="n">
-        <v>1539.196732007881</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.408479409637</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F44" t="n">
-        <v>742.4225746200293</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G44" t="n">
-        <v>328.4394675364358</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H44" t="n">
         <v>92.8116232260805</v>
@@ -7646,7 +7646,7 @@
         <v>92.8116232260805</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251933</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K44" t="n">
         <v>841.9378825128751</v>
@@ -7655,7 +7655,7 @@
         <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N44" t="n">
         <v>2919.747202874793</v>
@@ -7676,22 +7676,22 @@
         <v>4555.113898070874</v>
       </c>
       <c r="T44" t="n">
-        <v>4353.904749750192</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U44" t="n">
-        <v>4100.461420469742</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V44" t="n">
-        <v>3769.398533126171</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W44" t="n">
-        <v>3416.629877856057</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X44" t="n">
-        <v>3043.164119594977</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y44" t="n">
-        <v>2653.024787619165</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>92.8116232260805</v>
       </c>
       <c r="J45" t="n">
-        <v>240.4596049779264</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="K45" t="n">
-        <v>570.9683475412851</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.700680385036</v>
+        <v>141.6400447072594</v>
       </c>
       <c r="M45" t="n">
-        <v>1320.428158124813</v>
+        <v>733.658398959387</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124813</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.304633125007</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P45" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>494.4953311667363</v>
+        <v>789.9078859615884</v>
       </c>
       <c r="C46" t="n">
-        <v>325.5591482388294</v>
+        <v>620.9717030336815</v>
       </c>
       <c r="D46" t="n">
-        <v>175.4425088264937</v>
+        <v>620.9717030336815</v>
       </c>
       <c r="E46" t="n">
-        <v>175.4425088264937</v>
+        <v>473.0586094512884</v>
       </c>
       <c r="F46" t="n">
-        <v>175.4425088264937</v>
+        <v>326.168661953378</v>
       </c>
       <c r="G46" t="n">
-        <v>175.4425088264937</v>
+        <v>158.9544671279568</v>
       </c>
       <c r="H46" t="n">
-        <v>175.4425088264937</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I46" t="n">
         <v>92.8116232260805</v>
       </c>
       <c r="J46" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K46" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L46" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M46" t="n">
         <v>1238.413883213791</v>
@@ -7822,34 +7822,34 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P46" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q46" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S46" t="n">
-        <v>2177.346239107599</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T46" t="n">
-        <v>1957.667456821981</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U46" t="n">
-        <v>1668.591243136708</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V46" t="n">
-        <v>1413.906754930821</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W46" t="n">
-        <v>1124.48958489386</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X46" t="n">
-        <v>896.5000339958431</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.143795996976</v>
+        <v>971.5563507918281</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>240.8900576307836</v>
       </c>
       <c r="L2" t="n">
         <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0411260722765</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>245.4737854454458</v>
+        <v>246.8450950403531</v>
       </c>
       <c r="O2" t="n">
         <v>248.4501999472249</v>
@@ -8064,10 +8064,10 @@
         <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2302244077775</v>
+        <v>163.5316528316735</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>147.1059453792048</v>
       </c>
       <c r="O3" t="n">
         <v>130.8188201934042</v>
@@ -8076,7 +8076,7 @@
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.6029932607663</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>202.1809638361346</v>
+        <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>250.4751301597643</v>
+        <v>252.0299206180583</v>
       </c>
       <c r="M5" t="n">
         <v>244.1059827132785</v>
       </c>
       <c r="N5" t="n">
-        <v>242.7727963709657</v>
+        <v>236.0050783192468</v>
       </c>
       <c r="O5" t="n">
-        <v>244.8579146936526</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P5" t="n">
         <v>210.9873633211545</v>
       </c>
       <c r="Q5" t="n">
-        <v>207.1020630664798</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,22 +8298,22 @@
         <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>160.6795236990645</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>161.5285106728731</v>
       </c>
       <c r="N6" t="n">
-        <v>111.7499598249992</v>
+        <v>142.3059096569611</v>
       </c>
       <c r="O6" t="n">
-        <v>155.2295685195159</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P6" t="n">
-        <v>158.0709840006057</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>50.35764547518779</v>
+        <v>50.35764547517789</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.87340913032847</v>
+        <v>30.87340913032781</v>
       </c>
       <c r="K9" t="n">
-        <v>160.2925019305525</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>148.0127588165719</v>
+        <v>108.5526937024826</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.32472069121218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3.510081114654895e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>16.63785349429895</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>16.63785349429801</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>67.39707771516838</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>106.6134649638055</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.6235359353329</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>82.37805183878278</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>50.29152613729252</v>
       </c>
       <c r="X14" t="n">
-        <v>50.29152613729178</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>121.5252517313169</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>76.00797063971589</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>50.29152613729002</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>50.2915261372921</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.2482670715634</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>84.16945386597432</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>50.29152613728996</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.2915261372903</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>49.37456102579135</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>16.67828854135507</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>76.00797063971552</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>38.631155614563</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>54.18219756401902</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>56.89988040911781</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>98.79327901929936</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>157.8125473841245</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>137.6915425298889</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>17.35855759217067</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>50.29152613729093</v>
       </c>
       <c r="H38" t="n">
-        <v>50.29152613729087</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.7044571535273</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>91.36171848162996</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.2915261372921</v>
+        <v>50.29152613729033</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>19.63056806868045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>88.94602593957541</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>50.29152613729264</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>50.29152613729184</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>74.97257432909635</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4319777332163994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>865920.6177905839</v>
+        <v>865920.6177905836</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>825189.7402388046</v>
+        <v>825189.7402388044</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>830066.0935091297</v>
+        <v>830066.0935091295</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830066.0935091298</v>
+        <v>830066.0935091297</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830066.0935091297</v>
+        <v>830066.0935091299</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830066.0935091295</v>
+        <v>830066.0935091296</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>595255.2831516057</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="E2" t="n">
-        <v>578493.7065146591</v>
+        <v>578493.706514659</v>
       </c>
       <c r="F2" t="n">
         <v>581942.834437572</v>
       </c>
       <c r="G2" t="n">
-        <v>581942.8344375722</v>
+        <v>581942.834437572</v>
       </c>
       <c r="H2" t="n">
         <v>581942.8344375723</v>
       </c>
       <c r="I2" t="n">
-        <v>584845.1584109552</v>
+        <v>584845.1584109557</v>
       </c>
       <c r="J2" t="n">
-        <v>584845.1584109552</v>
+        <v>584845.1584109555</v>
       </c>
       <c r="K2" t="n">
-        <v>584845.1584109551</v>
+        <v>584845.1584109553</v>
       </c>
       <c r="L2" t="n">
-        <v>584845.1584109552</v>
+        <v>584845.1584109553</v>
       </c>
       <c r="M2" t="n">
-        <v>584845.158410955</v>
+        <v>584845.1584109557</v>
       </c>
       <c r="N2" t="n">
         <v>581942.834437572</v>
@@ -26353,7 +26353,7 @@
         <v>581942.834437572</v>
       </c>
       <c r="P2" t="n">
-        <v>581942.8344375719</v>
+        <v>581942.834437572</v>
       </c>
     </row>
     <row r="3">
@@ -26369,22 +26369,22 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>427084.8569938496</v>
+        <v>427084.8569938527</v>
       </c>
       <c r="E3" t="n">
-        <v>983591.8717264861</v>
+        <v>983591.8717264831</v>
       </c>
       <c r="F3" t="n">
-        <v>12072.03545703735</v>
+        <v>12072.03545703711</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3446.086611511551</v>
+        <v>3446.086611511611</v>
       </c>
       <c r="J3" t="n">
         <v>8880.174459335547</v>
@@ -26393,10 +26393,10 @@
         <v>1168.747045491171</v>
       </c>
       <c r="L3" t="n">
-        <v>42903.27330875323</v>
+        <v>42903.27330875353</v>
       </c>
       <c r="M3" t="n">
-        <v>234049.4018980052</v>
+        <v>234049.4018980048</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>283510.4702898529</v>
+        <v>283510.470289852</v>
       </c>
       <c r="E4" t="n">
-        <v>8104.021692873829</v>
+        <v>8104.021692873828</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="G4" t="n">
-        <v>8110.779805506623</v>
+        <v>8110.779805506621</v>
       </c>
       <c r="H4" t="n">
         <v>8110.779805506621</v>
       </c>
       <c r="I4" t="n">
-        <v>9342.252565816061</v>
+        <v>9342.252565816107</v>
       </c>
       <c r="J4" t="n">
-        <v>9342.252565816096</v>
+        <v>9342.252565816108</v>
       </c>
       <c r="K4" t="n">
-        <v>9342.252565816092</v>
+        <v>9342.252565816107</v>
       </c>
       <c r="L4" t="n">
-        <v>9342.252565816061</v>
+        <v>9342.252565816114</v>
       </c>
       <c r="M4" t="n">
-        <v>9342.252565816061</v>
+        <v>9342.25256581611</v>
       </c>
       <c r="N4" t="n">
-        <v>8110.77980550668</v>
+        <v>8110.779805506711</v>
       </c>
       <c r="O4" t="n">
-        <v>8110.779805506632</v>
+        <v>8110.779805506707</v>
       </c>
       <c r="P4" t="n">
         <v>8110.779805506622</v>
@@ -26473,7 +26473,7 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>56568.40682914718</v>
+        <v>56568.40682914732</v>
       </c>
       <c r="E5" t="n">
         <v>99123.68335626106</v>
@@ -26522,46 +26522,46 @@
         <v>125251.571412756</v>
       </c>
       <c r="C6" t="n">
-        <v>149065.7018718659</v>
+        <v>149065.7018718655</v>
       </c>
       <c r="D6" t="n">
-        <v>-171908.4509612444</v>
+        <v>-171908.450961247</v>
       </c>
       <c r="E6" t="n">
-        <v>-512325.8702609619</v>
+        <v>-512383.6688010864</v>
       </c>
       <c r="F6" t="n">
-        <v>461617.8906611897</v>
+        <v>461571.9856656243</v>
       </c>
       <c r="G6" t="n">
-        <v>473689.9261182271</v>
+        <v>473644.0211226614</v>
       </c>
       <c r="H6" t="n">
-        <v>473689.9261182273</v>
+        <v>473644.0211226615</v>
       </c>
       <c r="I6" t="n">
-        <v>471126.7797763891</v>
+        <v>471090.8827945251</v>
       </c>
       <c r="J6" t="n">
-        <v>465692.6919285652</v>
+        <v>465656.794946701</v>
       </c>
       <c r="K6" t="n">
-        <v>473404.1193424094</v>
+        <v>473368.2223605452</v>
       </c>
       <c r="L6" t="n">
-        <v>431669.5930791474</v>
+        <v>431633.6960972829</v>
       </c>
       <c r="M6" t="n">
-        <v>240523.4644898952</v>
+        <v>240487.5675080319</v>
       </c>
       <c r="N6" t="n">
-        <v>473689.926118227</v>
+        <v>473644.0211226613</v>
       </c>
       <c r="O6" t="n">
-        <v>473689.9261182271</v>
+        <v>473644.0211226613</v>
       </c>
       <c r="P6" t="n">
-        <v>473689.926118227</v>
+        <v>473644.0211226614</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>472.225386883239</v>
+        <v>472.2253868832422</v>
       </c>
       <c r="E3" t="n">
         <v>1347.466084763303</v>
@@ -26771,13 +26771,13 @@
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>207.9982466298121</v>
+        <v>207.9982466298133</v>
       </c>
       <c r="E4" t="n">
         <v>1147.186228756925</v>
@@ -26802,7 +26802,7 @@
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
         <v>1160.145290326007</v>
@@ -26826,7 +26826,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="P4" t="n">
         <v>1160.145290326006</v>
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>437.2041261641136</v>
+        <v>437.2041261641168</v>
       </c>
       <c r="E3" t="n">
-        <v>875.2406978800636</v>
+        <v>875.2406978800605</v>
       </c>
       <c r="F3" t="n">
-        <v>10.57496395308317</v>
+        <v>10.57496395308294</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,22 +27015,22 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>169.517182787034</v>
+        <v>169.5171827870352</v>
       </c>
       <c r="E4" t="n">
-        <v>939.1879821271134</v>
+        <v>939.187982127112</v>
       </c>
       <c r="F4" t="n">
+        <v>12.95906156908086</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.547473508864641e-13</v>
+      </c>
+      <c r="I4" t="n">
         <v>12.95906156908109</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.95906156908086</v>
       </c>
       <c r="J4" t="n">
         <v>33.93991247395525</v>
@@ -27039,10 +27039,10 @@
         <v>4.541151368822739</v>
       </c>
       <c r="L4" t="n">
-        <v>169.517182787034</v>
+        <v>169.5171827870352</v>
       </c>
       <c r="M4" t="n">
-        <v>939.1879821271134</v>
+        <v>939.187982127112</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,19 +27261,19 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>169.517182787034</v>
+        <v>169.5171827870352</v>
       </c>
       <c r="M4" t="n">
-        <v>939.1879821271134</v>
+        <v>939.187982127112</v>
       </c>
       <c r="N4" t="n">
-        <v>12.95906156908109</v>
+        <v>12.95906156908086</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" t="n">
         <v>396.2890922913351</v>
-      </c>
-      <c r="G2" t="n">
-        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27427,13 +27427,13 @@
         <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T2" t="n">
         <v>188.7509478129442</v>
       </c>
       <c r="U2" t="n">
-        <v>217.3983391449769</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>142.8142240812559</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>175.7884208702445</v>
       </c>
     </row>
     <row r="4">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>133.9876872582255</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4811355489759</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>149.41192845897</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>56.48524998443612</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.74710999203386</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>141.487508562741</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>191.7697429150818</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6447408781395</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>370.8777148997925</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.9819247089925</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>376.6808846845414</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
-        <v>205.0481221176458</v>
+        <v>166.5670582748677</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>222.4795457699687</v>
+        <v>183.9984819271906</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>310.7599048746349</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,7 +27698,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5509445319198</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>61.58672286766063</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27749,19 +27749,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>187.4553623994157</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>194.3195233066472</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>213.2139193181415</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>167.2919213606994</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>167.2016319345263</v>
       </c>
     </row>
     <row r="7">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>110.1344091754343</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>106.9399841801532</v>
       </c>
       <c r="G7" t="n">
         <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>142.7038137108703</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>50.4131925917203</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>206.7477850020302</v>
       </c>
       <c r="Y7" t="n">
-        <v>180.1035895093167</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>222.377732028598</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.0328795291622</v>
+        <v>320.0328795291621</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2880735791855</v>
+        <v>137.288073579185</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>165.7604273607104</v>
+        <v>165.7604273607101</v>
       </c>
       <c r="T8" t="n">
         <v>214.7856319517439</v>
       </c>
       <c r="U8" t="n">
-        <v>43.19553479681576</v>
+        <v>251.1937814266278</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>195.4469488780479</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>141.2427220875997</v>
       </c>
       <c r="X8" t="n">
-        <v>161.732854048657</v>
+        <v>161.7328540486557</v>
       </c>
       <c r="Y8" t="n">
-        <v>178.2396920262415</v>
+        <v>178.2396920262403</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3277870857637</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>102.4256300674692</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>54.42522448317521</v>
+        <v>54.42522448317497</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>37.09347022133056</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.8164304109084</v>
+        <v>152.8164304109083</v>
       </c>
       <c r="T9" t="n">
         <v>196.0706236896735</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>131.797955995285</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>42.81492891455261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.1394253821119</v>
@@ -28029,7 +28029,7 @@
         <v>154.6560835177378</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>129.8419244385736</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>139.0044280407023</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>209.1763346491826</v>
+        <v>209.1763346491825</v>
       </c>
       <c r="T10" t="n">
-        <v>224.3071315293451</v>
+        <v>224.307131529345</v>
       </c>
       <c r="U10" t="n">
-        <v>277.2276975663079</v>
+        <v>78.27433432796778</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>47.94929292445391</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>17.71140875922384</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.898393515108497</v>
+        <v>1.89839351510851</v>
       </c>
       <c r="H8" t="n">
-        <v>19.4419225866049</v>
+        <v>19.44192258660503</v>
       </c>
       <c r="I8" t="n">
-        <v>73.1878159912204</v>
+        <v>73.18781599122089</v>
       </c>
       <c r="J8" t="n">
-        <v>161.1237766029399</v>
+        <v>161.123776602941</v>
       </c>
       <c r="K8" t="n">
-        <v>241.4827740974827</v>
+        <v>241.4827740974843</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5807346354844</v>
+        <v>299.5807346354864</v>
       </c>
       <c r="M8" t="n">
-        <v>333.3412903097951</v>
+        <v>333.3412903097973</v>
       </c>
       <c r="N8" t="n">
-        <v>338.7351008845972</v>
+        <v>338.7351008845994</v>
       </c>
       <c r="O8" t="n">
-        <v>319.857950368737</v>
+        <v>319.8579503687392</v>
       </c>
       <c r="P8" t="n">
-        <v>272.9913604644959</v>
+        <v>272.9913604644978</v>
       </c>
       <c r="Q8" t="n">
-        <v>205.0051427046728</v>
+        <v>205.0051427046742</v>
       </c>
       <c r="R8" t="n">
-        <v>119.2499616434342</v>
+        <v>119.249961643435</v>
       </c>
       <c r="S8" t="n">
-        <v>43.25964222553492</v>
+        <v>43.25964222553521</v>
       </c>
       <c r="T8" t="n">
-        <v>8.310217612387449</v>
+        <v>8.310217612387506</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1518714812086797</v>
+        <v>0.1518714812086807</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.015730077446967</v>
+        <v>1.015730077446974</v>
       </c>
       <c r="H9" t="n">
-        <v>9.809814169027288</v>
+        <v>9.809814169027353</v>
       </c>
       <c r="I9" t="n">
-        <v>34.97140836823987</v>
+        <v>34.97140836824011</v>
       </c>
       <c r="J9" t="n">
-        <v>95.96421753633823</v>
+        <v>95.96421753633888</v>
       </c>
       <c r="K9" t="n">
-        <v>164.018132725285</v>
+        <v>164.0181327252861</v>
       </c>
       <c r="L9" t="n">
-        <v>220.5426205439127</v>
+        <v>220.5426205439142</v>
       </c>
       <c r="M9" t="n">
-        <v>257.3628358513652</v>
+        <v>257.3628358513669</v>
       </c>
       <c r="N9" t="n">
-        <v>264.174464309332</v>
+        <v>264.1744643093338</v>
       </c>
       <c r="O9" t="n">
-        <v>241.6680241722176</v>
+        <v>241.6680241722192</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9598952275704</v>
+        <v>193.9598952275717</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.6570533948093</v>
+        <v>129.6570533948102</v>
       </c>
       <c r="R9" t="n">
-        <v>63.06436393131258</v>
+        <v>63.064363931313</v>
       </c>
       <c r="S9" t="n">
-        <v>18.86674069292939</v>
+        <v>18.86674069292952</v>
       </c>
       <c r="T9" t="n">
-        <v>4.09410500514808</v>
+        <v>4.094105005148108</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06682434720045838</v>
+        <v>0.06682434720045882</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8515539763468243</v>
+        <v>0.8515539763468301</v>
       </c>
       <c r="H10" t="n">
-        <v>7.571088989701771</v>
+        <v>7.571088989701821</v>
       </c>
       <c r="I10" t="n">
-        <v>25.6085504886845</v>
+        <v>25.60855048868468</v>
       </c>
       <c r="J10" t="n">
-        <v>60.20486612772047</v>
+        <v>60.20486612772088</v>
       </c>
       <c r="K10" t="n">
-        <v>98.93508925193102</v>
+        <v>98.93508925193169</v>
       </c>
       <c r="L10" t="n">
-        <v>126.6028520834179</v>
+        <v>126.6028520834187</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4849564922572</v>
+        <v>133.4849564922581</v>
       </c>
       <c r="N10" t="n">
-        <v>130.3109825804191</v>
+        <v>130.31098258042</v>
       </c>
       <c r="O10" t="n">
-        <v>120.3632838567312</v>
+        <v>120.363283856732</v>
       </c>
       <c r="P10" t="n">
-        <v>102.9915827392559</v>
+        <v>102.9915827392566</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.30603341936909</v>
+        <v>71.30603341936957</v>
       </c>
       <c r="R10" t="n">
-        <v>38.2889633364672</v>
+        <v>38.28896333646745</v>
       </c>
       <c r="S10" t="n">
-        <v>14.84026338778965</v>
+        <v>14.84026338778975</v>
       </c>
       <c r="T10" t="n">
-        <v>3.63845789893643</v>
+        <v>3.638457898936454</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04644839870982683</v>
+        <v>0.04644839870982714</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>273.8279899234557</v>
       </c>
       <c r="K12" t="n">
         <v>468.0156494597219</v>
@@ -31847,16 +31847,16 @@
         <v>629.3047974170501</v>
       </c>
       <c r="M12" t="n">
-        <v>734.3690161959998</v>
+        <v>693.337856834888</v>
       </c>
       <c r="N12" t="n">
-        <v>753.8055788715009</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>592.5583928873264</v>
+        <v>689.584836793914</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>553.4526264002328</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,28 +32069,28 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>348.185763266026</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32306,7 +32306,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,34 +32315,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.0542121815563</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32388,7 +32388,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32397,16 +32397,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32418,7 +32418,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,43 +32543,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>439.1579551075604</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32780,43 +32780,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>439.1579551075602</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>571.4938338238233</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32862,7 +32862,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32871,16 +32871,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32892,7 +32892,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33017,43 +33017,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504302</v>
+        <v>439.1579551075602</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>571.4938338238233</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33099,7 +33099,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33108,16 +33108,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33129,7 +33129,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33254,43 +33254,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L30" t="n">
-        <v>152.1929830599426</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33336,7 +33336,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33345,16 +33345,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33366,7 +33366,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
         <v>0.436756920190194</v>
@@ -33491,7 +33491,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,22 +33500,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>344.3187317059965</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,10 +33524,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
         <v>0.1921756201013754</v>
@@ -33573,7 +33573,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
         <v>173.1391022273333</v>
@@ -33582,16 +33582,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
         <v>296.1865264282424</v>
@@ -33603,7 +33603,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
         <v>10.46359496551969</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,7 +33728,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>636.2185826739668</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -33895,25 +33895,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R38" t="n">
         <v>342.9428985987162</v>
@@ -33925,7 +33925,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H39" t="n">
         <v>28.2113810308819</v>
@@ -33971,34 +33971,34 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L39" t="n">
-        <v>152.1929830599435</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504301</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>254.1890314243787</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T39" t="n">
         <v>11.77395965821092</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H40" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L40" t="n">
         <v>364.0885788640618</v>
@@ -34062,13 +34062,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O40" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q40" t="n">
         <v>205.0641983561742</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -34132,25 +34132,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R41" t="n">
         <v>342.9428985987162</v>
@@ -34162,7 +34162,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H42" t="n">
         <v>28.2113810308819</v>
@@ -34208,34 +34208,34 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>199.0463877591109</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>455.6067946997434</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T42" t="n">
         <v>11.77395965821092</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H43" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L43" t="n">
         <v>364.0885788640618</v>
@@ -34299,13 +34299,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O43" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q43" t="n">
         <v>205.0641983561742</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -34369,25 +34369,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R44" t="n">
         <v>342.9428985987162</v>
@@ -34399,7 +34399,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H45" t="n">
         <v>28.2113810308819</v>
@@ -34445,34 +34445,34 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745724</v>
+        <v>187.8760176396509</v>
       </c>
       <c r="M45" t="n">
-        <v>403.4749205278532</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927636</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q45" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T45" t="n">
         <v>11.77395965821092</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H46" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L46" t="n">
         <v>364.0885788640618</v>
@@ -34536,13 +34536,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O46" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q46" t="n">
         <v>205.0641983561742</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34699,16 +34699,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>32.56860287904802</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="N2" t="n">
-        <v>32.56860287904802</v>
       </c>
       <c r="O2" t="n">
         <v>33.93991247395533</v>
@@ -34784,11 +34784,11 @@
         <v>33.93991247395533</v>
       </c>
       <c r="M3" t="n">
+        <v>33.93991247395533</v>
+      </c>
+      <c r="N3" t="n">
         <v>28.63848405005938</v>
       </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
-        <v>36.92627338448402</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M5" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="N5" t="n">
-        <v>38.48106384277808</v>
+        <v>31.71334579105919</v>
       </c>
       <c r="O5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>5.212927593424824</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.55594983196189</v>
       </c>
       <c r="O6" t="n">
-        <v>30.55594983196189</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>149.1744872483274</v>
+        <v>149.1744872483285</v>
       </c>
       <c r="K8" t="n">
-        <v>21.39292305250211</v>
+        <v>21.39292305250373</v>
       </c>
       <c r="L8" t="n">
-        <v>63.81431966549712</v>
+        <v>63.81431966549917</v>
       </c>
       <c r="M8" t="n">
-        <v>102.9950570825224</v>
+        <v>102.9950570825246</v>
       </c>
       <c r="N8" t="n">
-        <v>109.3220372880062</v>
+        <v>109.3220372880085</v>
       </c>
       <c r="O8" t="n">
-        <v>89.75973894705029</v>
+        <v>89.75973894705245</v>
       </c>
       <c r="P8" t="n">
-        <v>92.11601018441418</v>
+        <v>92.11601018440615</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.014443490128</v>
+        <v>195.0144434901294</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4691956814785</v>
+        <v>26.17669375092711</v>
       </c>
       <c r="L9" t="n">
-        <v>81.98824076403852</v>
+        <v>81.98824076404003</v>
       </c>
       <c r="M9" t="n">
-        <v>115.2288019293469</v>
+        <v>115.2288019293486</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8327522259987</v>
+        <v>132.8327522260005</v>
       </c>
       <c r="O9" t="n">
-        <v>99.07177972777316</v>
+        <v>99.07177972777478</v>
       </c>
       <c r="P9" t="n">
-        <v>207.9982466298121</v>
+        <v>168.538181515724</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>199.7525670446378</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>76.66559742604817</v>
+        <v>76.66559742604883</v>
       </c>
       <c r="L10" t="n">
-        <v>154.192877343734</v>
+        <v>154.1928773437349</v>
       </c>
       <c r="M10" t="n">
-        <v>173.0688334540978</v>
+        <v>173.0688334540987</v>
       </c>
       <c r="N10" t="n">
-        <v>174.4431549596477</v>
+        <v>174.4431549596486</v>
       </c>
       <c r="O10" t="n">
-        <v>144.9484117707709</v>
+        <v>144.9484117707717</v>
       </c>
       <c r="P10" t="n">
-        <v>100.2701420041494</v>
+        <v>100.27014200415</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>146.990363256789</v>
       </c>
       <c r="K12" t="n">
         <v>330.1742104853629</v>
@@ -35495,16 +35495,16 @@
         <v>490.7504176371759</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2349822739816</v>
+        <v>551.2038229128697</v>
       </c>
       <c r="N12" t="n">
-        <v>622.4638667881676</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>449.9621484428819</v>
+        <v>546.9885923494695</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>419.4782189859026</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>210.344324291667</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>279.758213872464</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.0724380955348</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36048,19 +36048,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>297.0239211855419</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>428.8975893793788</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36522,19 +36522,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N26" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284119</v>
+        <v>297.0239211855419</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>428.8975893793788</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36759,19 +36759,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>779.6000841311486</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845842</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L30" t="n">
-        <v>13.63860328006844</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36996,19 +36996,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>210.3443242916669</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>210.3443242916662</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
         <v>262.2512393642057</v>
@@ -37233,19 +37233,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>210.3443242916669</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>504.8768705906335</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607238</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L38" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020604</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L39" t="n">
-        <v>13.63860328006931</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>122.8473193410454</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R39" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M40" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O40" t="n">
         <v>370.7297545606359</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607205</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845876</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>61.20494878475188</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>313.4727607777251</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M43" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O43" t="n">
         <v>370.7297545606359</v>
@@ -38017,28 +38017,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L44" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M44" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946982</v>
+        <v>49.32163785977671</v>
       </c>
       <c r="M45" t="n">
-        <v>261.3408866058349</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>628.3797610094304</v>
       </c>
       <c r="O45" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839151</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R45" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L46" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M46" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O46" t="n">
         <v>370.7297545606359</v>
